--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T12:37:33+00:00</t>
+    <t>2023-02-01T15:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:21:20+00:00</t>
+    <t>2023-02-02T08:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:43:50+00:00</t>
+    <t>2023-02-02T09:41:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T09:41:21+00:00</t>
+    <t>2023-02-06T10:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:21:17+00:00</t>
+    <t>2023-02-06T11:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:51:34+00:00</t>
+    <t>2023-02-06T14:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T14:36:15+00:00</t>
+    <t>2023-02-08T06:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:08:33+00:00</t>
+    <t>2023-02-08T11:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:31:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:31:04+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A patient resource for an HIV Patient</t>
+    <t>A patient resource for an HIV Patient.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,7 +635,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/nid</t>
+    <t>http://openhie.org/fhir/hiv-cbs/identifier/nid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -728,6 +728,39 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/identifier/mn</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1831,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3071,7 +3104,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -4235,15 +4268,17 @@
         <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4252,32 +4287,28 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4321,13 +4352,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4336,16 +4367,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4353,10 +4384,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4367,7 +4398,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4376,23 +4407,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4440,31 +4467,31 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4472,21 +4499,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4498,15 +4525,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4543,31 +4572,31 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>163</v>
@@ -4587,44 +4616,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4648,46 +4679,46 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4696,7 +4727,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4704,10 +4735,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4724,25 +4755,25 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4767,13 +4798,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4791,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4806,7 +4837,7 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4815,7 +4846,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4823,10 +4854,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4834,7 +4865,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4849,32 +4880,32 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -4910,7 +4941,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4925,7 +4956,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4934,7 +4965,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4942,14 +4973,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4971,13 +5002,13 @@
         <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4991,7 +5022,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5027,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5042,7 +5073,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5051,7 +5082,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5059,21 +5090,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5085,17 +5116,15 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5144,13 +5173,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5159,7 +5188,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5168,7 +5197,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5176,10 +5205,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5190,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5202,15 +5231,17 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5259,13 +5290,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5274,7 +5305,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5314,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5291,10 +5322,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5305,32 +5336,38 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5374,13 +5411,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5389,16 +5426,16 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5406,10 +5443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5420,7 +5457,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5432,17 +5469,19 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5491,13 +5530,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5506,16 +5545,16 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5523,10 +5562,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5537,7 +5576,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5546,23 +5585,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5610,31 +5645,31 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5642,21 +5677,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5665,23 +5700,21 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5705,55 +5738,55 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5761,10 +5794,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5772,7 +5805,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5781,25 +5814,25 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5824,13 +5857,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5848,7 +5881,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5863,27 +5896,27 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5900,25 +5933,25 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5967,7 +6000,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5982,16 +6015,16 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5999,21 +6032,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6025,20 +6058,18 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6086,13 +6117,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6101,16 +6132,16 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6118,21 +6149,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6141,21 +6172,21 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6179,13 +6210,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6203,13 +6234,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6218,16 +6249,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6235,10 +6266,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6249,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6258,23 +6289,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6322,13 +6349,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6337,16 +6364,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6354,10 +6381,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6377,23 +6404,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>368</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6441,7 +6464,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6456,16 +6479,16 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6473,10 +6496,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6487,7 +6510,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6496,22 +6519,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6560,31 +6581,31 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6592,10 +6613,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6606,7 +6627,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6615,19 +6636,23 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6675,31 +6700,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6707,21 +6732,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6730,21 +6755,23 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6768,13 +6795,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6792,31 +6819,31 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6824,45 +6851,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6911,42 +6938,42 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6957,29 +6984,31 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7004,13 +7033,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7028,13 +7057,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7043,7 +7072,7 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>163</v>
@@ -7052,7 +7081,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7060,10 +7089,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,7 +7103,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7083,20 +7112,22 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7145,13 +7176,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7160,16 +7191,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7177,10 +7208,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7191,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7203,19 +7234,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7240,13 +7269,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7264,13 +7293,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7279,16 +7308,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7296,10 +7325,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7322,17 +7351,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7381,7 +7412,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7396,7 +7427,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>163</v>
@@ -7405,7 +7436,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7413,10 +7444,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7427,7 +7458,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7439,17 +7470,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7474,13 +7507,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7498,13 +7531,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7513,7 +7546,7 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>163</v>
@@ -7522,7 +7555,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7530,10 +7563,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7544,7 +7577,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7556,17 +7589,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7615,22 +7650,22 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>163</v>
@@ -7639,7 +7674,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7647,10 +7682,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7673,13 +7708,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7730,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>424</v>
+        <v>162</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7742,13 +7777,13 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7762,14 +7797,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7788,20 +7823,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>166</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7849,7 +7882,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7861,13 +7894,13 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7881,42 +7914,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7964,22 +8001,22 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7996,14 +8033,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8022,18 +8059,18 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8057,13 +8094,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8081,7 +8118,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8093,19 +8130,19 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8113,45 +8150,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>142</v>
+        <v>412</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8200,31 +8235,31 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8232,10 +8267,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8243,10 +8278,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8258,19 +8293,19 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8295,13 +8330,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8319,13 +8354,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8334,16 +8369,16 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>443</v>
+        <v>321</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8351,10 +8386,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8377,19 +8412,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8438,7 +8471,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8453,16 +8486,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>452</v>
+        <v>163</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8470,21 +8503,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8496,18 +8529,18 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8531,13 +8564,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8555,13 +8588,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8570,7 +8603,7 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>460</v>
+        <v>331</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>163</v>
@@ -8579,7 +8612,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8587,10 +8620,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8598,7 +8631,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8610,22 +8643,20 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8674,7 +8705,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8683,22 +8714,22 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>163</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8706,10 +8737,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8720,32 +8751,28 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8793,13 +8820,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8808,7 +8835,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>163</v>
@@ -8825,10 +8852,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8839,7 +8866,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8851,16 +8878,20 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8908,25 +8939,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8940,21 +8971,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8966,17 +8997,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9025,19 +9054,19 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>163</v>
@@ -9057,14 +9086,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9077,26 +9106,24 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>134</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>166</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O62" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9144,7 +9171,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9159,7 +9186,7 @@
         <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9176,44 +9203,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>478</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9261,31 +9290,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9293,10 +9322,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9316,19 +9345,23 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9352,13 +9385,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9376,7 +9409,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9391,18 +9424,1075 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="B71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,7 +635,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/identifier/nid</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/nid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -751,7 +751,7 @@
     <t>Patient.identifier:MN.system</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/identifier/mn</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/mn</t>
   </si>
   <si>
     <t>Patient.identifier:MN.value</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -478,7 +478,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
@@ -730,44 +730,255 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Patient.identifier:MN</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.system</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/mn</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.assigner</t>
-  </si>
-  <si>
-    <t>Patient.active</t>
+    <t>Patient.identifier:MR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.version</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.code</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.display</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.text</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/mr</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.assigner</t>
+  </si>
+  <si>
+    <t>Patient.active</t>
   </si>
   <si>
     <t>Whether this patient's record is in active use</t>
@@ -1864,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1873,8 +2084,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.23828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4857,7 +5068,7 @@
         <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4865,7 +5076,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4877,35 +5088,31 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -4941,7 +5148,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4953,10 +5160,10 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4965,7 +5172,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4976,18 +5183,18 @@
         <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4996,19 +5203,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5022,7 +5229,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5046,34 +5253,34 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5082,7 +5289,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5090,10 +5297,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5104,7 +5311,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5116,16 +5323,20 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5173,13 +5384,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5188,7 +5399,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5197,7 +5408,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5205,10 +5416,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5228,20 +5439,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5290,7 +5499,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5302,10 +5511,10 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5314,7 +5523,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5322,52 +5531,48 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5399,40 +5604,40 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5443,10 +5648,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5457,7 +5662,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5469,19 +5674,19 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5491,7 +5696,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -5530,13 +5735,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5545,16 +5750,16 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5562,10 +5767,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5585,18 +5790,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5645,7 +5852,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5657,10 +5864,10 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5669,7 +5876,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5677,21 +5884,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5700,21 +5907,21 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5723,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5750,34 +5957,34 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5786,7 +5993,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5794,10 +6001,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5814,25 +6021,23 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5857,13 +6062,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5881,7 +6086,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5896,7 +6101,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5905,7 +6110,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5913,10 +6118,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5939,19 +6144,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6000,7 +6205,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6015,7 +6220,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6024,7 +6229,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6032,18 +6237,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -6061,15 +6266,17 @@
         <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6117,7 +6324,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6132,7 +6339,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6141,7 +6348,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6149,21 +6356,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6175,30 +6382,32 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6234,13 +6443,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6249,7 +6458,7 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6258,7 +6467,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6266,10 +6475,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6277,10 +6486,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6295,12 +6504,14 @@
         <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6313,7 +6524,7 @@
         <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>80</v>
@@ -6349,13 +6560,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6364,7 +6575,7 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6373,7 +6584,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6381,10 +6592,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6395,7 +6606,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6407,13 +6618,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6464,13 +6675,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6479,7 +6690,7 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6488,7 +6699,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6496,10 +6707,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6522,18 +6733,18 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6581,7 +6792,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6596,7 +6807,7 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6605,7 +6816,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6613,10 +6824,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6627,36 +6838,38 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6700,13 +6913,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -6715,16 +6928,16 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>163</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6732,10 +6945,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6743,10 +6956,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6758,19 +6971,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6795,13 +7008,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6819,13 +7032,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6834,16 +7047,16 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6851,10 +7064,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6862,7 +7075,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
@@ -6874,23 +7087,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6938,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6950,66 +7159,64 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>163</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7045,43 +7252,43 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7089,10 +7296,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7103,31 +7310,31 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7152,13 +7359,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7176,13 +7383,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7191,16 +7398,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7208,10 +7415,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7231,20 +7438,22 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7269,13 +7478,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7293,7 +7502,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7308,16 +7517,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7325,18 +7534,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>
@@ -7348,23 +7557,21 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7412,7 +7619,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7427,16 +7634,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7444,18 +7651,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7467,23 +7674,21 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7531,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7546,16 +7751,16 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7563,10 +7768,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7586,23 +7791,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7650,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7662,19 +7863,19 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>392</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7682,10 +7883,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7696,7 +7897,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7705,16 +7906,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>160</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7765,22 +7966,22 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>162</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>163</v>
+        <v>376</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7789,7 +7990,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7797,21 +7998,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7820,21 +8021,21 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7882,22 +8083,22 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>163</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7906,7 +8107,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -7914,14 +8115,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7934,25 +8135,25 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8001,7 +8202,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8013,19 +8214,19 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8033,10 +8234,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8044,10 +8245,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8056,20 +8257,22 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8094,13 +8297,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8118,13 +8321,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8133,16 +8336,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8150,10 +8353,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8161,7 +8364,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -8173,20 +8376,22 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>252</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8235,7 +8440,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8250,19 +8455,19 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -8281,31 +8486,31 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8360,7 +8565,7 @@
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8369,7 +8574,7 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>163</v>
@@ -8378,7 +8583,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8386,10 +8591,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8400,7 +8605,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8409,20 +8614,22 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8471,13 +8678,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8486,16 +8693,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>163</v>
+        <v>429</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8503,10 +8710,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8529,17 +8736,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8564,13 +8771,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8588,7 +8795,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8603,16 +8810,16 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>331</v>
+        <v>437</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>163</v>
+        <v>438</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8620,10 +8827,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8646,17 +8853,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>224</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8705,7 +8914,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8714,13 +8923,13 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>163</v>
@@ -8729,7 +8938,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8737,10 +8946,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8751,7 +8960,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8763,16 +8972,20 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8820,13 +9033,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8835,7 +9048,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>163</v>
@@ -8844,7 +9057,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8852,10 +9065,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8878,19 +9091,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8939,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8951,13 +9164,13 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>462</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8971,10 +9184,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9086,10 +9299,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9203,14 +9416,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9232,10 +9445,10 @@
         <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>136</v>
@@ -9290,7 +9503,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9322,10 +9535,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9333,10 +9546,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9351,16 +9564,14 @@
         <v>184</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9385,13 +9596,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>112</v>
+        <v>475</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>113</v>
+        <v>476</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9409,13 +9620,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9424,16 +9635,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>455</v>
+        <v>163</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9441,10 +9652,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9467,19 +9678,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9528,7 +9737,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9543,16 +9752,16 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>462</v>
+        <v>327</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9560,14 +9769,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9586,18 +9795,20 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9645,7 +9856,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9660,7 +9871,7 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>163</v>
@@ -9669,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9677,10 +9888,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9688,7 +9899,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
@@ -9700,22 +9911,20 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9764,7 +9973,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9779,16 +9988,16 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -9796,10 +10005,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9810,31 +10019,29 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>387</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9859,13 +10066,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -9883,13 +10090,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9898,7 +10105,7 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>484</v>
+        <v>401</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>163</v>
@@ -9907,7 +10114,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -9915,10 +10122,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9941,16 +10148,18 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>160</v>
+        <v>499</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>161</v>
+        <v>500</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9998,7 +10207,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>162</v>
+        <v>498</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10007,22 +10216,22 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10030,21 +10239,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10056,17 +10265,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>134</v>
+        <v>506</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10115,25 +10322,25 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>170</v>
+        <v>505</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10147,14 +10354,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10167,25 +10374,25 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>136</v>
+        <v>512</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>142</v>
+        <v>513</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10234,7 +10441,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10246,13 +10453,13 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10266,10 +10473,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10277,7 +10484,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>87</v>
@@ -10289,20 +10496,18 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>159</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>160</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10351,10 +10556,10 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>488</v>
+        <v>162</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>87</v>
@@ -10363,19 +10568,19 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10383,21 +10588,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10406,18 +10611,20 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>134</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10442,57 +10649,1352 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG73" t="s" s="2">
+      <c r="Y84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG84" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AH73" t="s" s="2">
+      <c r="AH84" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AK84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-patient.xlsx
+++ b/branches/master/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
